--- a/자유수강권/방송댄스(수강).xlsx
+++ b/자유수강권/방송댄스(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="102">
   <si>
     <t>주야</t>
   </si>
@@ -690,7 +690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1281,8 +1283,8 @@
       <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>52</v>
+      <c r="D23" s="1">
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>53</v>
